--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791910.140552685</v>
+        <v>2789044.468647883</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587976</v>
+        <v>8444421.381715732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9112094.42002224</v>
+        <v>9112072.547402997</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>97.6352909288865</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99636303581897</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>68.24504398675666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.72683757586846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.08469670319182</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>70.09171223062481</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>181.4487096095771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179177196</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492329</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.19725738465607</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>148.5873298926971</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513399</v>
+        <v>285.4442069312963</v>
       </c>
       <c r="I26" t="n">
-        <v>7.59456128478817</v>
+        <v>7.081331206015278</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094699</v>
+        <v>88.79820333299195</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273043</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392682</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766723</v>
+        <v>2.334151821525907</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>30.23085318351445</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.96771254532332</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.88542329426741</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308283</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312965</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787915</v>
+        <v>7.081331206015193</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094685</v>
+        <v>88.79820333299189</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766609</v>
+        <v>2.33415182152585</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>160.0606087226987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.250246619445</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125481</v>
+        <v>70.88542329426735</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>410.0269562204229</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>285.4442069312962</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787915</v>
+        <v>7.081331206015193</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094685</v>
+        <v>88.79820333299189</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>200.0011169465289</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9235904042595</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.5207253129314</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392679</v>
+        <v>84.97321768248372</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766609</v>
+        <v>2.33415182152585</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044362</v>
+        <v>119.2510505515018</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.7868966316346</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7556720908249</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>84.780570997385</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>70.88542329426735</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>182.7743669785567</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.834035647658</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1899456912063</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>137.5569094644935</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>23.94516103140361</v>
+        <v>155.8760184598852</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>88.57454693356406</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1854574632516</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>89.5340822374519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>59.73562477865413</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>18.70843787977292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>159.5099885583422</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5644878091387</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>656.6110348804735</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>656.6110348804735</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>656.6110348804735</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>656.6110348804735</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1623.178216428726</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.215699488314</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>895.9500008815637</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>510.1617482833195</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>99.17584349371191</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>85.25243943230281</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>85.25243943230281</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>337.5336943803085</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>168.5338941186409</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5027,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811482</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542189</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604873</v>
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5142,10 +5142,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>589.4655956925567</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C13" t="n">
-        <v>589.4655956925567</v>
+        <v>210.2179684131232</v>
       </c>
       <c r="D13" t="n">
-        <v>558.066912153979</v>
+        <v>210.2179684131232</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927029</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104705</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626701</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208138</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208138</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>771.1140605227964</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>771.1140605227964</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,25 +5279,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,37 +5367,37 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.5269503710301</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C16" t="n">
-        <v>393.5907674431232</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.059203485665</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.374715279778</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.957545242817</v>
+        <v>838.4734448544773</v>
       </c>
       <c r="X16" t="n">
-        <v>964.9679943448</v>
+        <v>610.48389395646</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.1754152012699</v>
+        <v>389.6913148129298</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364129</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,25 +5592,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384225</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783403</v>
+        <v>909.2731541783386</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.855984141378</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>614.3833465866536</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5756,19 +5756,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>672.6864166439464</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>522.5697772316105</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>374.6566836492175</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>374.6566836492177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783401</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413795</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433622</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998321</v>
+        <v>841.6225995718532</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>867.5397632725212</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6072,19 +6072,19 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,7 +6145,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243362</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>241.7782212305366</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760576</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696538</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J26" t="n">
-        <v>357.1047532886062</v>
+        <v>358.2021945153788</v>
       </c>
       <c r="K26" t="n">
-        <v>801.9275083030677</v>
+        <v>804.7014151994176</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.671231675071</v>
+        <v>1395.524942477767</v>
       </c>
       <c r="M26" t="n">
-        <v>2378.953612054112</v>
+        <v>2084.599393525242</v>
       </c>
       <c r="N26" t="n">
-        <v>3081.440188028841</v>
+        <v>2789.437597974657</v>
       </c>
       <c r="O26" t="n">
-        <v>3731.443080300297</v>
+        <v>3516.047847263195</v>
       </c>
       <c r="P26" t="n">
-        <v>4251.704509646627</v>
+        <v>4038.204486922643</v>
       </c>
       <c r="Q26" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573239</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C27" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E27" t="n">
-        <v>465.0889283702533</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F27" t="n">
-        <v>318.5543703971383</v>
+        <v>318.2088334047174</v>
       </c>
       <c r="G27" t="n">
-        <v>182.667655117033</v>
+        <v>182.3293128866049</v>
       </c>
       <c r="H27" t="n">
-        <v>96.7666358504402</v>
+        <v>96.49777987399504</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J27" t="n">
-        <v>94.16119234461522</v>
+        <v>232.5958076174681</v>
       </c>
       <c r="K27" t="n">
-        <v>407.8202819091929</v>
+        <v>547.3935737180007</v>
       </c>
       <c r="L27" t="n">
-        <v>407.8202819091929</v>
+        <v>1017.000559852563</v>
       </c>
       <c r="M27" t="n">
-        <v>826.3725024041098</v>
+        <v>1584.366630913299</v>
       </c>
       <c r="N27" t="n">
-        <v>1421.329709979378</v>
+        <v>1788.615722929372</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.37952538686</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.037460732812</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110499</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110499</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>474.6011738263144</v>
+        <v>560.0828205994956</v>
       </c>
       <c r="C28" t="n">
-        <v>305.6649908984075</v>
+        <v>391.1466376715887</v>
       </c>
       <c r="D28" t="n">
-        <v>305.6649908984075</v>
+        <v>241.029998259253</v>
       </c>
       <c r="E28" t="n">
-        <v>241.0511398425256</v>
+        <v>241.029998259253</v>
       </c>
       <c r="F28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603205</v>
+        <v>167.3552671573049</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532468</v>
+        <v>417.5071952352234</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371884</v>
+        <v>793.1419734834344</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649981</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408912</v>
+        <v>1601.798933740119</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740131</v>
+        <v>1957.292026969323</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185969</v>
+        <v>2237.957099327613</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.00035239675</v>
+        <v>2348.839967262883</v>
       </c>
       <c r="R28" t="n">
-        <v>2343.00035239675</v>
+        <v>2277.238529591906</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.274661052479</v>
+        <v>2092.617956886293</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.214509174214</v>
+        <v>1872.583577444214</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.133426940949</v>
+        <v>1583.502824220774</v>
       </c>
       <c r="V28" t="n">
-        <v>1394.448938735062</v>
+        <v>1328.818336014887</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.031768698102</v>
+        <v>1039.401165977926</v>
       </c>
       <c r="X28" t="n">
-        <v>877.0422178000842</v>
+        <v>811.4116150799086</v>
       </c>
       <c r="Y28" t="n">
-        <v>656.2496386565541</v>
+        <v>590.6190359363785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1958.828890955677</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906162</v>
+        <v>803.7890349610745</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760574</v>
+        <v>389.6203923141827</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J29" t="n">
-        <v>524.5104023089598</v>
+        <v>358.202194515379</v>
       </c>
       <c r="K29" t="n">
-        <v>969.3331573234223</v>
+        <v>879.0881961321828</v>
       </c>
       <c r="L29" t="n">
-        <v>1558.076880695427</v>
+        <v>1469.911723410532</v>
       </c>
       <c r="M29" t="n">
-        <v>2244.837149161783</v>
+        <v>2158.986174458008</v>
       </c>
       <c r="N29" t="n">
-        <v>2947.323725136513</v>
+        <v>2863.824378907424</v>
       </c>
       <c r="O29" t="n">
-        <v>3597.32661740797</v>
+        <v>3516.047847263194</v>
       </c>
       <c r="P29" t="n">
-        <v>4117.588046754301</v>
+        <v>4038.204486922643</v>
       </c>
       <c r="Q29" t="n">
-        <v>4529.167173995942</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573239</v>
+        <v>4617.307383185321</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936302</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810787</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467216</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197102</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C30" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E30" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F30" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047173</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866048</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585044007</v>
+        <v>96.49777987399499</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J30" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="K30" t="n">
-        <v>94.16119234461522</v>
+        <v>408.9378168618754</v>
       </c>
       <c r="L30" t="n">
-        <v>478.0346918458671</v>
+        <v>878.5448029964381</v>
       </c>
       <c r="M30" t="n">
-        <v>1043.614051781794</v>
+        <v>878.5448029964381</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.571259357063</v>
+        <v>1475.336010623465</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.621074764546</v>
+        <v>1999.063577777313</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>402.7285223907061</v>
+        <v>857.7527011476878</v>
       </c>
       <c r="C31" t="n">
-        <v>241.0511398425256</v>
+        <v>688.816518219781</v>
       </c>
       <c r="D31" t="n">
-        <v>241.0511398425256</v>
+        <v>688.8165182197811</v>
       </c>
       <c r="E31" t="n">
-        <v>241.0511398425256</v>
+        <v>540.9034246373878</v>
       </c>
       <c r="F31" t="n">
-        <v>94.16119234461522</v>
+        <v>394.0134771394776</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461522</v>
+        <v>226.7160574476507</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603206</v>
+        <v>167.3552671573048</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532474</v>
+        <v>417.5071952352237</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371896</v>
+        <v>793.1419734834346</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1601.79893374012</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.292026969324</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262884</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.127700961142</v>
+        <v>2277.238529591907</v>
       </c>
       <c r="S31" t="n">
-        <v>2086.402009616871</v>
+        <v>2092.617956886294</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.341857738606</v>
+        <v>1872.583577444216</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.260775505341</v>
+        <v>1583.502824220775</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.576287299454</v>
+        <v>1328.818336014888</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.159117262493</v>
+        <v>1039.401165977928</v>
       </c>
       <c r="X31" t="n">
-        <v>805.1695663644759</v>
+        <v>1039.401165977928</v>
       </c>
       <c r="Y31" t="n">
-        <v>584.3769872209458</v>
+        <v>1039.401165977928</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2327.791407896088</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1958.828890955676</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1600.563192348926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1214.774939750682</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>803.7890349610739</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760574</v>
+        <v>389.620392314182</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696535</v>
+        <v>101.2929105653984</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J32" t="n">
-        <v>357.1047532886067</v>
+        <v>358.202194515379</v>
       </c>
       <c r="K32" t="n">
-        <v>801.9275083030691</v>
+        <v>804.7014151994183</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.671231675074</v>
+        <v>1395.524942477768</v>
       </c>
       <c r="M32" t="n">
-        <v>2077.43150014143</v>
+        <v>2084.599393525244</v>
       </c>
       <c r="N32" t="n">
-        <v>3081.440188028839</v>
+        <v>2789.43759797466</v>
       </c>
       <c r="O32" t="n">
-        <v>3731.443080300296</v>
+        <v>3726.2396880165</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.704509646626</v>
+        <v>4248.396327675949</v>
       </c>
       <c r="Q32" t="n">
-        <v>4594.226429670195</v>
+        <v>4592.341471716698</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.059617230761</v>
+        <v>4707.00253806713</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4617.30738318532</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4415.286052936301</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4161.827880810786</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3830.764993467215</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3477.996338197101</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3104.530579936021</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2714.39124796021</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.713822318087</v>
+        <v>947.3682853256661</v>
       </c>
       <c r="C33" t="n">
-        <v>773.26079303696</v>
+        <v>772.9152560445391</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757087</v>
+        <v>623.9808463832878</v>
       </c>
       <c r="E33" t="n">
-        <v>465.0889283702531</v>
+        <v>464.7433913778324</v>
       </c>
       <c r="F33" t="n">
-        <v>318.5543703971381</v>
+        <v>318.2088334047173</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170328</v>
+        <v>182.3293128866048</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585044007</v>
+        <v>96.49777987399499</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J33" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="K33" t="n">
-        <v>94.16119234461522</v>
+        <v>408.9378168618754</v>
       </c>
       <c r="L33" t="n">
-        <v>478.0346918458671</v>
+        <v>408.9378168618754</v>
       </c>
       <c r="M33" t="n">
-        <v>1043.614051781794</v>
+        <v>976.3038879226117</v>
       </c>
       <c r="N33" t="n">
-        <v>1638.571259357063</v>
+        <v>1387.611243893755</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.621074764546</v>
+        <v>1911.338811047603</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110498</v>
+        <v>2312.34329008322</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2530.484968257454</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2559.770360290267</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2439.314753672589</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2248.62091869114</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2020.584886276165</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1785.432778044422</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308642</v>
+        <v>1531.195421316221</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1323.343921110688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1115.583622345734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>474.6011738263177</v>
+        <v>706.3571509458087</v>
       </c>
       <c r="C34" t="n">
-        <v>474.6011738263177</v>
+        <v>706.3571509458087</v>
       </c>
       <c r="D34" t="n">
-        <v>388.9642334249187</v>
+        <v>556.240511533473</v>
       </c>
       <c r="E34" t="n">
-        <v>241.0511398425256</v>
+        <v>408.3274179510798</v>
       </c>
       <c r="F34" t="n">
-        <v>94.16119234461522</v>
+        <v>261.4374704531695</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461522</v>
+        <v>94.14005076134261</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603205</v>
+        <v>167.355267157305</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532472</v>
+        <v>417.5071952352237</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371893</v>
+        <v>793.141973483435</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649982</v>
+        <v>1199.58530235842</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408914</v>
+        <v>1601.79893374012</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740133</v>
+        <v>1957.292026969325</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2237.957099327614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2348.839967262884</v>
       </c>
       <c r="R34" t="n">
-        <v>2343.000352396753</v>
+        <v>2277.238529591907</v>
       </c>
       <c r="S34" t="n">
-        <v>2158.274661052482</v>
+        <v>2092.617956886294</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.214509174217</v>
+        <v>1872.583577444215</v>
       </c>
       <c r="U34" t="n">
-        <v>1649.133426940952</v>
+        <v>1583.502824220774</v>
       </c>
       <c r="V34" t="n">
-        <v>1394.448938735065</v>
+        <v>1444.556451024316</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.031768698105</v>
+        <v>1155.139280987356</v>
       </c>
       <c r="X34" t="n">
-        <v>877.0422178000875</v>
+        <v>927.1497300893384</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.2496386565574</v>
+        <v>706.3571509458087</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890957</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963554</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127618</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160588</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
         <v>3654.445485610258</v>
@@ -7014,28 +7014,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.755759562691</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2201.632234562885</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890985</v>
+        <v>1005.305464128091</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7680286442463</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319106</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7093,10 +7093,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7108,37 +7108,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789006</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628683</v>
+        <v>1186.95392895833</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193382</v>
+        <v>1186.95392895833</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,37 +7160,37 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
         <v>4566.333620403613</v>
@@ -7208,16 +7208,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L39" t="n">
-        <v>572.0050724668117</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M39" t="n">
-        <v>1164.023426718939</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.119390118276</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="O39" t="n">
-        <v>2332.99586511847</v>
+        <v>2055.023285385561</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890986</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="C40" t="n">
-        <v>473.4858206622662</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="D40" t="n">
-        <v>323.3691812499305</v>
+        <v>344.9790755352644</v>
       </c>
       <c r="E40" t="n">
-        <v>323.3691812499305</v>
+        <v>197.0659819528713</v>
       </c>
       <c r="F40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7348,34 +7348,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789006</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103733</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897846</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628684</v>
+        <v>897.5367589213701</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193383</v>
+        <v>676.7441797778399</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7412,10 +7412,10 @@
         <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
         <v>2234.298471234014</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L42" t="n">
-        <v>142.676769632785</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>1165.062459293462</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1787.158422692798</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476008</v>
+        <v>723.0852658456173</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196939</v>
+        <v>554.1490829177104</v>
       </c>
       <c r="D43" t="n">
-        <v>235.7210651131766</v>
+        <v>404.0324435053747</v>
       </c>
       <c r="E43" t="n">
-        <v>235.7210651131766</v>
+        <v>404.0324435053747</v>
       </c>
       <c r="F43" t="n">
-        <v>235.7210651131766</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7576,7 +7576,7 @@
         <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
         <v>1654.146473931025</v>
@@ -7600,19 +7600,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062236</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856349</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819388</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213706</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778405</v>
+        <v>904.733730675857</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.8451947151</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.57949610835</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510106</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720498</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556142</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148071</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112164</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171646</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798344</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955892</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.86483750223</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596215</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578421</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.84418457021</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226639</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956525</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695445</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719633</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7731203228276</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0987265385863</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.477214165138</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.075177719745</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.09297316441</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437067</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157998</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8324635034641</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8324635034641</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8324635034641</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9350515036934</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956997</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936299</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174768</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5337506739464</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,22 +9404,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>82.70159106555758</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>315.1679217109335</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>304.5677898107933</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>75.13816255835172</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>75.13816255834803</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.75475476572979</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>304.5677898107864</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>287.4531532182529</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>117.5307763150205</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>32.92359802148772</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.4312861059662</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>220.29174420986</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.074288727014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>130.8285508743722</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24379,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696708</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>69.99732345939771</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>149.6011269984228</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>82.46625010124585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>165.6244454949086</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898786</v>
+        <v>84.28234746703987</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.15392492125494</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7.186212375929159</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813004</v>
+        <v>9.93628844661194</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898778</v>
+        <v>84.28234746703984</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>63.83490202082736</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813004</v>
+        <v>141.186535066057</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898778</v>
+        <v>84.28234746703984</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125481</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>114.5807338593345</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>143.3016600672242</v>
+        <v>11.37080263874267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>78.67227416506377</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.23559055967968</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -25567,7 +25567,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59.08139078076046</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>85.6854232442771</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>146.8157004124959</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.4319777332161721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771472.5428342482</v>
+        <v>771415.0078876249</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771472.5428342482</v>
+        <v>771415.0078876249</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771472.5428342483</v>
+        <v>771415.007887625</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>770448.9334955799</v>
+        <v>770621.1650677847</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191732</v>
+        <v>635330.8590191733</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191731</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191732</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="J2" t="n">
-        <v>643516.917586386</v>
+        <v>643640.5502721049</v>
       </c>
       <c r="K2" t="n">
-        <v>643516.9175863859</v>
+        <v>643640.550272105</v>
       </c>
       <c r="L2" t="n">
-        <v>643516.9175863859</v>
+        <v>643640.550272105</v>
       </c>
       <c r="M2" t="n">
         <v>645346.3816948474</v>
       </c>
       <c r="N2" t="n">
+        <v>645346.3816948471</v>
+      </c>
+      <c r="O2" t="n">
         <v>645346.3816948475</v>
       </c>
-      <c r="O2" t="n">
-        <v>645346.3816948474</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645346.3816948477</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934072</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733735</v>
+        <v>336433.9864356446</v>
       </c>
       <c r="K3" t="n">
-        <v>1.158712166215992e-09</v>
+        <v>4.965909283782821e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.478740858</v>
+        <v>160866.4619420232</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>8092.872670013902</v>
+        <v>7888.580768453772</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.872670013827</v>
+        <v>7888.580768453715</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.87267001382</v>
+        <v>7888.580768453731</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662953</v>
+        <v>5069.915760662917</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662911</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662956</v>
+        <v>5069.915760662909</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662909</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945207</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945208</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100155.6815945208</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-208200.137778957</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355875</v>
+        <v>381767.7414355874</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355876</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250395</v>
+        <v>-210116.8767152647</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683679</v>
+        <v>517260.5372781418</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.7327683673</v>
+        <v>517260.5372781418</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.7327683674</v>
+        <v>517260.5372781419</v>
       </c>
       <c r="I6" t="n">
-        <v>517327.7327683675</v>
+        <v>517260.5372781417</v>
       </c>
       <c r="J6" t="n">
-        <v>201271.1609936678</v>
+        <v>199121.0737684254</v>
       </c>
       <c r="K6" t="n">
-        <v>535324.4860670401</v>
+        <v>535555.0602040696</v>
       </c>
       <c r="L6" t="n">
-        <v>535324.4860670413</v>
+        <v>535555.0602040701</v>
       </c>
       <c r="M6" t="n">
-        <v>376216.9477360878</v>
+        <v>378444.0675530583</v>
       </c>
       <c r="N6" t="n">
-        <v>539346.4264769461</v>
+        <v>539310.5294950814</v>
       </c>
       <c r="O6" t="n">
-        <v>539346.4264769459</v>
+        <v>539310.5294950816</v>
       </c>
       <c r="P6" t="n">
-        <v>533500.888037724</v>
+        <v>539310.529495082</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184551</v>
+        <v>1312.35059705965</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059651</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1312.350597059651</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26811,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1176.750634516783</v>
       </c>
       <c r="M4" t="n">
         <v>1173.104351895088</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.262412591253</v>
+        <v>222.5738964663519</v>
       </c>
       <c r="K3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183317</v>
+        <v>45.69045165673492</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573156</v>
+        <v>656.5249766664078</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377723</v>
+        <v>516.5793752286799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>316.1488790919085</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>75.8624221474568</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>120.9349532090423</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>87.92584485503849</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106055</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.8578157762263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.14835189617794e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.26246879672181</v>
+        <v>5.275781294712157</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442725</v>
+        <v>54.03059518447089</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856177</v>
+        <v>203.3945583643906</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357681</v>
+        <v>447.7753426620764</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010024</v>
+        <v>671.0991648672421</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386776</v>
+        <v>832.5578566652894</v>
       </c>
       <c r="M26" t="n">
-        <v>924.043474102379</v>
+        <v>926.3810322651267</v>
       </c>
       <c r="N26" t="n">
-        <v>938.995463571065</v>
+        <v>941.3708458687277</v>
       </c>
       <c r="O26" t="n">
-        <v>886.6667894736624</v>
+        <v>888.9097956194336</v>
       </c>
       <c r="P26" t="n">
-        <v>756.7495910545927</v>
+        <v>758.6639449062271</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719927</v>
+        <v>569.7250272893478</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520766</v>
+        <v>331.4047967539628</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052984</v>
+        <v>120.2218662532534</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764973</v>
+        <v>23.09473261760248</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377446</v>
+        <v>0.4220625035769724</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906393</v>
+        <v>2.822791850279247</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256964</v>
+        <v>27.26222655401273</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923328</v>
+        <v>97.18822817847409</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>266.6919265213389</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709021</v>
+        <v>455.8189804900485</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>612.9048708248866</v>
       </c>
       <c r="M27" t="n">
-        <v>564.9140546239546</v>
+        <v>715.2310753975091</v>
       </c>
       <c r="N27" t="n">
-        <v>732.3085884219877</v>
+        <v>337.6539262409833</v>
       </c>
       <c r="O27" t="n">
-        <v>669.9192903105882</v>
+        <v>671.6139890442909</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021603</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483319</v>
+        <v>360.326903554944</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375133</v>
       </c>
       <c r="S27" t="n">
-        <v>52.2998173994016</v>
+        <v>52.43212055233598</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279813</v>
+        <v>11.37783206318696</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412101</v>
+        <v>0.1857099901499505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36056233525083</v>
+        <v>2.366533863550188</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613921</v>
+        <v>21.0406374413826</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827042</v>
+        <v>71.16812746021841</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022336</v>
+        <v>167.3139441529983</v>
       </c>
       <c r="K28" t="n">
-        <v>274.25442404096</v>
+        <v>274.9482070561036</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790189</v>
+        <v>351.8390436772708</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793641</v>
+        <v>370.964940083599</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661567</v>
+        <v>362.1442229558213</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589083</v>
+        <v>334.4988046407122</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197911</v>
+        <v>286.2215138242881</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908672</v>
+        <v>198.1649401560071</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559145</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614399</v>
+        <v>41.24223105841554</v>
       </c>
       <c r="T28" t="n">
-        <v>10.086039068799</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591363</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721816</v>
+        <v>5.27578129471216</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442731</v>
+        <v>54.03059518447092</v>
       </c>
       <c r="I29" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643907</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620766</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010032</v>
+        <v>671.0991648672424</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386787</v>
+        <v>832.5578566652898</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023802</v>
+        <v>926.3810322651271</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710661</v>
+        <v>941.3708458687281</v>
       </c>
       <c r="O29" t="n">
-        <v>886.6667894736635</v>
+        <v>888.909795619434</v>
       </c>
       <c r="P29" t="n">
-        <v>756.7495910545936</v>
+        <v>758.6639449062275</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719934</v>
+        <v>569.7250272893481</v>
       </c>
       <c r="R29" t="n">
-        <v>330.568555552077</v>
+        <v>331.404796753963</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532535</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760249</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769727</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279249</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401275</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923339</v>
+        <v>97.18822817847415</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>455.8189804900487</v>
       </c>
       <c r="L30" t="n">
-        <v>526.3053893770983</v>
+        <v>612.904870824887</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855811</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>732.3085884219886</v>
+        <v>734.1611137267946</v>
       </c>
       <c r="O30" t="n">
-        <v>669.919290310589</v>
+        <v>671.6139890442912</v>
       </c>
       <c r="P30" t="n">
-        <v>537.6692916021609</v>
+        <v>450.4185612586809</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549441</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375134</v>
       </c>
       <c r="S30" t="n">
-        <v>52.29981739940167</v>
+        <v>52.43212055233601</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318697</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499507</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250832</v>
+        <v>2.36653386355019</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138261</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827051</v>
+        <v>71.16812746021844</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022338</v>
+        <v>167.3139441529984</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561038</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790193</v>
+        <v>351.839043677271</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835992</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558215</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407124</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242883</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560072</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614404</v>
+        <v>41.24223105841556</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721816</v>
+        <v>5.27578129471216</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442731</v>
+        <v>54.03059518447092</v>
       </c>
       <c r="I32" t="n">
-        <v>202.881328285618</v>
+        <v>203.3945583643907</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357686</v>
+        <v>447.7753426620766</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010032</v>
+        <v>671.0991648672424</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386787</v>
+        <v>832.5578566652898</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023802</v>
+        <v>926.3810322651271</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710661</v>
+        <v>941.3708458687281</v>
       </c>
       <c r="O32" t="n">
-        <v>886.6667894736635</v>
+        <v>888.909795619434</v>
       </c>
       <c r="P32" t="n">
-        <v>756.7495910545936</v>
+        <v>758.6639449062275</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719934</v>
+        <v>569.7250272893481</v>
       </c>
       <c r="R32" t="n">
-        <v>330.568555552077</v>
+        <v>331.404796753963</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052985</v>
+        <v>120.2218662532535</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764976</v>
+        <v>23.09473261760249</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377452</v>
+        <v>0.4220625035769727</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906396</v>
+        <v>2.822791850279249</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256967</v>
+        <v>27.26222655401275</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923339</v>
+        <v>97.18822817847415</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>455.8189804900487</v>
       </c>
       <c r="L33" t="n">
-        <v>526.3053893770983</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855811</v>
+        <v>715.2310753975095</v>
       </c>
       <c r="N33" t="n">
-        <v>732.3085884219886</v>
+        <v>546.8036878117607</v>
       </c>
       <c r="O33" t="n">
-        <v>669.919290310589</v>
+        <v>671.6139890442912</v>
       </c>
       <c r="P33" t="n">
-        <v>537.6692916021609</v>
+        <v>539.0294367432366</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>360.3269035549441</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>175.2607080375134</v>
       </c>
       <c r="S33" t="n">
-        <v>52.29981739940167</v>
+        <v>52.43212055233601</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.37783206318697</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412104</v>
+        <v>0.1857099901499507</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250832</v>
+        <v>2.36653386355019</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613923</v>
+        <v>21.04063744138261</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827051</v>
+        <v>71.16812746021844</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022338</v>
+        <v>167.3139441529984</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409603</v>
+        <v>274.9482070561038</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790193</v>
+        <v>351.839043677271</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793645</v>
+        <v>370.9649400835992</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661572</v>
+        <v>362.1442229558215</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589087</v>
+        <v>334.4988046407124</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197915</v>
+        <v>286.2215138242883</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908674</v>
+        <v>198.1649401560072</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>106.4079680829021</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614404</v>
+        <v>41.24223105841556</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.11155378062353</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1290836652845559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,34 +33649,34 @@
         <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293309</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
         <v>342.9428985987163</v>
@@ -33685,7 +33685,7 @@
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
@@ -33743,25 +33743,25 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>541.8219741960829</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>489.7119024980487</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
         <v>11.77395965821093</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>357.0213665833166</v>
+        <v>369.2285398295302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34205,16 +34205,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>648.4209452361722</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>418.8742322669821</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419976</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>419.892877620958</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>867.4697571238447</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5995565090818</v>
+        <v>266.7294381353901</v>
       </c>
       <c r="K26" t="n">
-        <v>449.3159141560218</v>
+        <v>451.0093138222615</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686905</v>
+        <v>596.7914416953022</v>
       </c>
       <c r="M26" t="n">
-        <v>998.2650306858997</v>
+        <v>696.034799037854</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744741</v>
+        <v>711.9577822721367</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519757</v>
+        <v>733.9497467560985</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993232</v>
+        <v>527.4309491509575</v>
       </c>
       <c r="Q26" t="n">
-        <v>345.9817373975432</v>
+        <v>559.734328074803</v>
       </c>
       <c r="R26" t="n">
-        <v>114.9830177379445</v>
+        <v>115.8192589398307</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>139.8542998546722</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965431</v>
+        <v>317.9775415156895</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>474.3504910450125</v>
       </c>
       <c r="M27" t="n">
-        <v>422.7800207019363</v>
+        <v>573.0970414754909</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386544</v>
+        <v>206.31221415765</v>
       </c>
       <c r="O27" t="n">
-        <v>527.3230458661437</v>
+        <v>529.0177445998464</v>
       </c>
       <c r="P27" t="n">
-        <v>403.6948841878301</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.4359084623104</v>
+        <v>220.3451294689224</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.58120407354937</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556087</v>
+        <v>73.95476403632551</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150771</v>
+        <v>252.6787152302208</v>
       </c>
       <c r="L28" t="n">
-        <v>378.541265539335</v>
+        <v>379.4290689375869</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412047</v>
+        <v>410.5488170454396</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453854</v>
+        <v>406.2763953350499</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729479</v>
+        <v>359.0839325547519</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846846</v>
+        <v>283.5000730891816</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391728</v>
+        <v>112.0028969043127</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>434.6961716811561</v>
+        <v>266.7294381353903</v>
       </c>
       <c r="K29" t="n">
-        <v>449.3159141560226</v>
+        <v>526.1474763806099</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686914</v>
+        <v>596.7914416953026</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751075</v>
+        <v>696.0347990378544</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744753</v>
+        <v>711.9577822721371</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519767</v>
+        <v>658.8115841977473</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993241</v>
+        <v>527.430949150958</v>
       </c>
       <c r="Q29" t="n">
-        <v>415.7364921632736</v>
+        <v>559.7343280748032</v>
       </c>
       <c r="R29" t="n">
-        <v>180.6994376109274</v>
+        <v>115.8192589398309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>317.9775415156897</v>
       </c>
       <c r="L30" t="n">
-        <v>387.7510095972241</v>
+        <v>474.3504910450128</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635628</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386553</v>
+        <v>602.8194016434613</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661445</v>
+        <v>529.0177445998468</v>
       </c>
       <c r="P30" t="n">
-        <v>403.6948841878307</v>
+        <v>316.4441538443507</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.3451294689226</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.58120407354946</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556106</v>
+        <v>73.9547640363256</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302209</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375871</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412051</v>
+        <v>410.5488170454398</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350501</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729484</v>
+        <v>359.083932554752</v>
       </c>
       <c r="P31" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891817</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043129</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>265.5995565090823</v>
+        <v>266.7294381353903</v>
       </c>
       <c r="K32" t="n">
-        <v>449.3159141560226</v>
+        <v>451.0093138222618</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686914</v>
+        <v>596.7914416953026</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751075</v>
+        <v>696.0347990378544</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.150189785262</v>
+        <v>711.9577822721371</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519767</v>
+        <v>946.2647374160001</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993241</v>
+        <v>527.430949150958</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.9817373975438</v>
+        <v>347.4193374148986</v>
       </c>
       <c r="R32" t="n">
-        <v>114.9830177379449</v>
+        <v>115.8192589398309</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>317.9775415156897</v>
       </c>
       <c r="L33" t="n">
-        <v>387.7510095972241</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635628</v>
+        <v>573.0970414754911</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386553</v>
+        <v>415.4619757284274</v>
       </c>
       <c r="O33" t="n">
-        <v>527.3230458661445</v>
+        <v>529.0177445998468</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6948841878307</v>
+        <v>405.0550293289064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>220.3451294689226</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.58120407354946</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556106</v>
+        <v>73.9547640363256</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150775</v>
+        <v>252.6787152302209</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393354</v>
+        <v>379.4290689375871</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412051</v>
+        <v>410.5488170454398</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453858</v>
+        <v>406.2763953350501</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729484</v>
+        <v>359.083932554752</v>
       </c>
       <c r="P34" t="n">
-        <v>282.777843884685</v>
+        <v>283.5000730891817</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391731</v>
+        <v>112.0028969043129</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020582</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
@@ -37391,22 +37391,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>410.4802621127496</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>355.7374950837184</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37476,7 +37476,7 @@
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
         <v>293.4650856931359</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955297</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0469591689864</v>
+        <v>235.2541324152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>49.32163785977568</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>505.8247007917277</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>276.7401983449638</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295339</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
